--- a/main/results/tables/give-me-some-credit.xlsx
+++ b/main/results/tables/give-me-some-credit.xlsx
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.09</v>
+        <v>9.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08445402331247004</v>
+        <v>0.2420452041110067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06138967062101526</v>
+        <v>0.06782578315039454</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07850434620751935</v>
+        <v>0.1025827849439245</v>
       </c>
     </row>
     <row r="3">
@@ -507,243 +507,243 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cchvae</t>
+          <t>wachter</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9.77</v>
+        <v>10.22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.727530965816696</v>
+        <v>0.9682642677827201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8274086978646032</v>
+        <v>0.5317357041877157</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6459519351013515</v>
+        <v>0.5085406824339784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>clue</t>
+          <t>face-knn</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.77</v>
+        <v>9.19</v>
       </c>
       <c r="D5" t="n">
-        <v>1.638284066738282</v>
+        <v>2.181617147650578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7815670584071454</v>
+        <v>1.148180030638227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6477656169939259</v>
+        <v>0.7671678082191781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>revise</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08</v>
+        <v>10.48</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02718818073701842</v>
+        <v>1.830553903496672</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02194267304219456</v>
+        <v>0.8574439824560099</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02211416666666667</v>
+        <v>0.6735965235084805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>wachter</t>
+          <t>cem</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.22</v>
+        <v>6.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9682642677827201</v>
+        <v>0.9120619179605925</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5317357041877157</v>
+        <v>0.6591150092133984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5085406824339784</v>
+        <v>0.650797647921741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>cem-vae</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2.09</v>
+        <v>6.97</v>
       </c>
       <c r="D8" t="n">
-        <v>1.329864808647734</v>
+        <v>0.9034640582713611</v>
       </c>
       <c r="E8" t="n">
-        <v>1.070182068133659</v>
+        <v>0.6568001494721392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.827379661192294</v>
+        <v>0.6500466030523181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>gs</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9.5</v>
+        <v>2.09</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6583560442159176</v>
+        <v>1.329864808647734</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5082221524252166</v>
+        <v>1.070182068133659</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5198055902705477</v>
+        <v>0.827379661192294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>cem</t>
+          <t>face-epsilon</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.98</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9120619179605925</v>
+        <v>2.15136036891069</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6591150092133984</v>
+        <v>1.161212482567081</v>
       </c>
       <c r="F10" t="n">
-        <v>0.650797647921741</v>
+        <v>0.7563458904109589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>cem-vae</t>
+          <t>clue</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C11" t="n">
-        <v>6.97</v>
+        <v>9.77</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9034640582713611</v>
+        <v>1.638284066738282</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6568001494721392</v>
+        <v>0.7815670584071454</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6500466030523181</v>
+        <v>0.6477656169939259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>face-epsilon</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>9.039999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="D12" t="n">
-        <v>2.15136036891069</v>
+        <v>0.02718818073701842</v>
       </c>
       <c r="E12" t="n">
-        <v>1.161212482567081</v>
+        <v>0.02194267304219456</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7563458904109589</v>
+        <v>0.02211416666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>revise</t>
+          <t>cchvae</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C13" t="n">
-        <v>10.48</v>
+        <v>9.77</v>
       </c>
       <c r="D13" t="n">
-        <v>1.830553903496672</v>
+        <v>1.727530965816696</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8574439824560099</v>
+        <v>0.8274086978646032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6735965235084805</v>
+        <v>0.6459519351013515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>face-knn</t>
+          <t>gs</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9.19</v>
+        <v>9.5</v>
       </c>
       <c r="D14" t="n">
-        <v>2.181617147650578</v>
+        <v>0.6583560442159176</v>
       </c>
       <c r="E14" t="n">
-        <v>1.148180030638227</v>
+        <v>0.5082221524252166</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7671678082191781</v>
+        <v>0.5198055902705477</v>
       </c>
     </row>
   </sheetData>

--- a/main/results/tables/give-me-some-credit.xlsx
+++ b/main/results/tables/give-me-some-credit.xlsx
@@ -485,265 +485,265 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cruds</t>
+          <t>cem</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.48</v>
+        <v>6.98</v>
       </c>
       <c r="D3" t="n">
-        <v>1.825658650695374</v>
+        <v>0.9120619179605925</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8609219060674071</v>
+        <v>0.6591150092133984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.673200966145333</v>
+        <v>0.650797647921741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cchvae</t>
+          <t>wachter</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9.77</v>
+        <v>10.22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.727530965816696</v>
+        <v>0.9682642677827201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8274086978646032</v>
+        <v>0.5317357041877157</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6459519351013515</v>
+        <v>0.5085406824339784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>clue</t>
+          <t>face-epsilon</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.77</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>1.638284066738282</v>
+        <v>2.15136036891069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7815670584071454</v>
+        <v>1.161212482567081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6477656169939259</v>
+        <v>0.7563458904109589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>cchvae</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08</v>
+        <v>9.77</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02718818073701842</v>
+        <v>1.727530965816696</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02194267304219456</v>
+        <v>0.8274086978646032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02211416666666667</v>
+        <v>0.6459519351013515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>wachter</t>
+          <t>revise</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.22</v>
+        <v>10.48</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9682642677827201</v>
+        <v>1.830553903496672</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5317357041877157</v>
+        <v>0.8574439824560099</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5085406824339784</v>
+        <v>0.6735965235084805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.09</v>
+        <v>0.08</v>
       </c>
       <c r="D8" t="n">
-        <v>1.329864808647734</v>
+        <v>0.02718818073701842</v>
       </c>
       <c r="E8" t="n">
-        <v>1.070182068133659</v>
+        <v>0.02194267304219456</v>
       </c>
       <c r="F8" t="n">
-        <v>0.827379661192294</v>
+        <v>0.02211416666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>gs</t>
+          <t>cruds</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9.5</v>
+        <v>10.48</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6583560442159176</v>
+        <v>1.825658650695374</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5082221524252166</v>
+        <v>0.8609219060674071</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5198055902705477</v>
+        <v>0.673200966145333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>cem</t>
+          <t>face-knn</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.98</v>
+        <v>9.19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9120619179605925</v>
+        <v>2.181617147650578</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6591150092133984</v>
+        <v>1.148180030638227</v>
       </c>
       <c r="F10" t="n">
-        <v>0.650797647921741</v>
+        <v>0.7671678082191781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>cem-vae</t>
+          <t>clue</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C11" t="n">
-        <v>6.97</v>
+        <v>9.77</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9034640582713611</v>
+        <v>1.638284066738282</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6568001494721392</v>
+        <v>0.7815670584071454</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6500466030523181</v>
+        <v>0.6477656169939259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>face-epsilon</t>
+          <t>cem-vae</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.039999999999999</v>
+        <v>6.97</v>
       </c>
       <c r="D12" t="n">
-        <v>2.15136036891069</v>
+        <v>0.9034640582713611</v>
       </c>
       <c r="E12" t="n">
-        <v>1.161212482567081</v>
+        <v>0.6568001494721392</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7563458904109589</v>
+        <v>0.6500466030523181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>revise</t>
+          <t>gs</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.48</v>
+        <v>9.5</v>
       </c>
       <c r="D13" t="n">
-        <v>1.830553903496672</v>
+        <v>0.6583560442159176</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8574439824560099</v>
+        <v>0.5082221524252166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6735965235084805</v>
+        <v>0.5198055902705477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>face-knn</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9.19</v>
+        <v>2.09</v>
       </c>
       <c r="D14" t="n">
-        <v>2.181617147650578</v>
+        <v>1.329864808647734</v>
       </c>
       <c r="E14" t="n">
-        <v>1.148180030638227</v>
+        <v>1.070182068133659</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7671678082191781</v>
+        <v>0.827379661192294</v>
       </c>
     </row>
   </sheetData>

--- a/main/results/tables/give-me-some-credit.xlsx
+++ b/main/results/tables/give-me-some-credit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,265 +485,221 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cem</t>
+          <t>face-knn</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.98</v>
+        <v>10.01534891301479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9120619179605925</v>
+        <v>47.91684236268697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6591150092133984</v>
+        <v>125.2692418264162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.650797647921741</v>
+        <v>137.3146930923626</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>wachter</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.22</v>
+        <v>40.18008337333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9682642677827201</v>
+        <v>84.01587375865105</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5317357041877157</v>
+        <v>223.0683833392125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5085406824339784</v>
+        <v>113.6043565164729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>face-epsilon</t>
+          <t>cchvae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C5" t="n">
-        <v>9.039999999999999</v>
+        <v>7.400653358181819</v>
       </c>
       <c r="D5" t="n">
-        <v>2.15136036891069</v>
+        <v>45.78300191229781</v>
       </c>
       <c r="E5" t="n">
-        <v>1.161212482567081</v>
+        <v>145.4949370105641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7563458904109589</v>
+        <v>145.1906391260749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>cchvae</t>
+          <t>clue</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>9.77</v>
+        <v>7.351674986727273</v>
       </c>
       <c r="D6" t="n">
-        <v>1.727530965816696</v>
+        <v>48.42747684783367</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8274086978646032</v>
+        <v>173.387140174368</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6459519351013515</v>
+        <v>147.6900389971227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>revise</t>
+          <t>cruds</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.48</v>
+        <v>8.78503184190909</v>
       </c>
       <c r="D7" t="n">
-        <v>1.830553903496672</v>
+        <v>56.51866744707791</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8574439824560099</v>
+        <v>188.3346629580538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6735965235084805</v>
+        <v>184.017295453266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>cem</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08</v>
+        <v>11.53622930775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02718818073701842</v>
+        <v>168.3190653623361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02194267304219456</v>
+        <v>888.6523580938148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02211416666666667</v>
+        <v>192.6099408241382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>cruds</t>
+          <t>wachter</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>10.48</v>
+        <v>5.085376672134199</v>
       </c>
       <c r="D9" t="n">
-        <v>1.825658650695374</v>
+        <v>238093391.6897064</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8609219060674071</v>
+        <v>6.573303178745367e+16</v>
       </c>
       <c r="F9" t="n">
-        <v>0.673200966145333</v>
+        <v>443806747.7886946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>face-knn</t>
+          <t>face-epsilon</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>9.19</v>
+        <v>9.898980877504691</v>
       </c>
       <c r="D10" t="n">
-        <v>2.181617147650578</v>
+        <v>47.69467388637548</v>
       </c>
       <c r="E10" t="n">
-        <v>1.148180030638227</v>
+        <v>128.240620193113</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7671678082191781</v>
+        <v>137.6069041711729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>clue</t>
+          <t>gs</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>9.77</v>
+        <v>5.532854262888889</v>
       </c>
       <c r="D11" t="n">
-        <v>1.638284066738282</v>
+        <v>685.255974376774</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7815670584071454</v>
+        <v>874515.9442734839</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6477656169939259</v>
+        <v>2808.649212049501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>cem-vae</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>6.97</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9034640582713611</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6568001494721392</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6500466030523181</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6583560442159176</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5082221524252166</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5198055902705477</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>dice</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.329864808647734</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.070182068133659</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.827379661192294</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
